--- a/data/income_statement/2digits/total/81_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/81_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>81-Services to buildings and landscape activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>81-Services to buildings and landscape activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>6523255.74783</v>
+        <v>6523255.747829999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>7645839.194289999</v>
+        <v>7645839.19429</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>9364536.020740001</v>
+        <v>9364885.155129999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>11641048.11236</v>
+        <v>11642472.32424</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>14325993.61119</v>
+        <v>14355360.06846</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>16952310.85802</v>
+        <v>17203641.68258</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>20561816.50617</v>
+        <v>21018280.14356999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>27157692.59540001</v>
+        <v>27274686.71091</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>32224744.15097</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>23450815.85889</v>
+        <v>24071135.25826</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>22551775.51592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>23394943.76651</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>26820267.666</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>6288864.52846</v>
@@ -995,76 +906,86 @@
         <v>7425747.014409998</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>9063550.624209998</v>
+        <v>9063899.758599998</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>11321974.10223</v>
+        <v>11322358.12646</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>13954230.53702</v>
+        <v>13983231.59419</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>16572840.79959</v>
+        <v>16798355.39412</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>20030179.46161</v>
+        <v>20464529.48806</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>26419946.49502999</v>
+        <v>26532574.98459</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>31322765.12138</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>22903054.28837</v>
+        <v>23520797.68537</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>21894045.41166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>22731168.25188</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>25906594.864</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>33283.11227999999</v>
+        <v>33283.11228</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>31509.18618</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>84858.87942</v>
+        <v>84858.87941999998</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>96734.20230000002</v>
+        <v>97346.53541000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>96692.90035000001</v>
+        <v>96856.87606000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>78637.17455</v>
+        <v>103960.9301</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>148120.71221</v>
+        <v>155324.61264</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>197119.29766</v>
+        <v>197934.91014</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>265871.75242</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>97372.98913000002</v>
+        <v>97376.48913</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>217513.1894</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>220253.07883</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>326078.27</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>201108.10709</v>
@@ -1076,34 +997,39 @@
         <v>216126.51711</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>222339.80783</v>
+        <v>222767.66237</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>275070.17382</v>
+        <v>275271.59821</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>300832.88388</v>
+        <v>301325.35836</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>383516.3323500001</v>
+        <v>398426.04287</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>540626.8027100001</v>
+        <v>544176.81618</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>636107.2771700001</v>
+        <v>636107.2771699999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>450388.58139</v>
+        <v>452961.08376</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>440216.9148600001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>443522.4358</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>587594.532</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>15752.39413</v>
@@ -1118,31 +1044,36 @@
         <v>14569.91267</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>21209.70736</v>
+        <v>21221.06488</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>31401.06071</v>
+        <v>31405.90094</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>35737.2059</v>
+        <v>36103.55552</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>78830.85213999999</v>
+        <v>78831.21964</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>120608.31499</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>165019.7312</v>
+        <v>165041.5193</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>211617.53043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>212215.31009</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>365525.596</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>12753.06638</v>
@@ -1157,31 +1088,36 @@
         <v>12692.74595</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>19379.65613</v>
+        <v>19381.22319</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>28888.30123</v>
+        <v>28890.15883</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>31928.22385999999</v>
+        <v>32286.84569</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>70153.36925999998</v>
+        <v>70153.73676</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>100466.18746</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>147822.60934</v>
+        <v>147843.60184</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>202166.76392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>202373.70239</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>306581.426</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1648.68886</v>
@@ -1196,31 +1132,36 @@
         <v>1594.7551</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1423.38546</v>
+        <v>1433.17592</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1030.57587</v>
+        <v>1033.5585</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3091.314809999999</v>
+        <v>3097.77752</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4922.966820000001</v>
+        <v>4922.96682</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>9405.487499999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>10072.77247</v>
+        <v>10073.07247</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>6041.267809999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>6432.109</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>7895.682</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1350.63889</v>
@@ -1241,7 +1182,7 @@
         <v>1482.18361</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>717.66723</v>
+        <v>718.93231</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>3754.51606</v>
@@ -1250,16 +1191,21 @@
         <v>10736.64003</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>7124.34939</v>
+        <v>7124.844990000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3409.498699999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3409.4987</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>51048.488</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>6507503.353700001</v>
@@ -1268,76 +1214,86 @@
         <v>7627565.407780001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>9345593.59058</v>
+        <v>9345942.724970002</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>11626478.19969</v>
+        <v>11627902.41157</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>14304783.90383</v>
+        <v>14334139.00358</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>16920909.79731</v>
+        <v>17172235.78164</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>20526079.30027</v>
+        <v>20982176.58805</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>27078861.74326</v>
+        <v>27195855.49127001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>32104135.83598</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>23285796.12769</v>
+        <v>23906093.73896</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>22340157.98549001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>23182728.45642</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>26454742.07</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>5665459.443769999</v>
+        <v>5665459.44377</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>6710398.084359999</v>
+        <v>6710398.084360001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>8265959.820199999</v>
+        <v>8266287.474760001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>10354191.35192</v>
+        <v>10355130.03112</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>12840869.48832</v>
+        <v>12868855.68771</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>15247806.57779</v>
+        <v>15488406.17779</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>18625886.18245</v>
+        <v>19043383.16108</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>24675216.90725999</v>
+        <v>24775399.98335</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>29361368.537</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>20970228.41048</v>
+        <v>21571446.84617</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>19867647.32361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>20562845.30467</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>23068509.797</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>103993.14455</v>
@@ -1349,112 +1305,127 @@
         <v>171713.43242</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>186167.60136</v>
+        <v>186168.20136</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>193448.7892999999</v>
+        <v>193500.89308</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>318600.9269899999</v>
+        <v>318793.76699</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>405012.3821699999</v>
+        <v>416039.7728099999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>570196.0340400001</v>
+        <v>570694.38761</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>655692.1355000001</v>
+        <v>655692.1355</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>692551.3689999998</v>
+        <v>692647.1420899999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>783633.35789</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>816508.9284299999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1056644.223</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>430258.08856</v>
+        <v>430258.0885600001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>497123.8347699999</v>
+        <v>497123.83477</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>562742.7037000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>793585.9584199999</v>
+        <v>793588.1467100001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1185590.20678</v>
+        <v>1186770.85734</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1515586.05279</v>
+        <v>1539605.70266</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2566395.2655</v>
+        <v>2676642.07381</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3110849.0545</v>
+        <v>3112137.23512</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>3569247.87812</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2594009.26747</v>
+        <v>2614741.88882</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3031307.66678</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3108777.39334</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3777801.489</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>5120322.728839999</v>
+        <v>5120322.72884</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>6062039.472019999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>7510656.847259999</v>
+        <v>7510984.501820001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>9358025.284429997</v>
+        <v>9358961.175340001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>11408156.48588</v>
+        <v>11434909.93093</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>13373559.83616</v>
+        <v>13589946.94629</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>15620031.44961</v>
+        <v>15916187.53722</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>20922117.75678</v>
+        <v>21020505.83193</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>25031379.9766</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>17568253.3242</v>
+        <v>18148580.14761</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>15966674.77541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16550815.38683</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>18107998.034</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>10885.48182</v>
@@ -1475,64 +1446,74 @@
         <v>40059.76185</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>34447.08516999999</v>
+        <v>34513.77724</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>72054.06194</v>
+        <v>72062.52868999999</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>105048.54678</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>115414.44981</v>
+        <v>115477.66765</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>86031.52352999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>86743.59607</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>126066.051</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>842043.9099299998</v>
+        <v>842043.9099300001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>917167.3234199999</v>
+        <v>917167.32342</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1079633.77038</v>
+        <v>1079655.25021</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1272286.84777</v>
+        <v>1272772.38045</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1463914.41551</v>
+        <v>1465283.31587</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1673103.21952</v>
+        <v>1683829.60385</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1900193.11782</v>
+        <v>1938793.42697</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2403644.836</v>
+        <v>2420455.50792</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2742767.298979999</v>
+        <v>2742767.29898</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2315567.71721</v>
+        <v>2334646.89279</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2472510.66188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2619883.15175</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3386232.273</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>658894.66901</v>
@@ -1541,37 +1522,42 @@
         <v>726131.6529300001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>846746.14063</v>
+        <v>846831.15822</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>975074.2979599999</v>
+        <v>975511.85118</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1098656.73493</v>
+        <v>1101432.21809</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1320283.13238</v>
+        <v>1336281.04734</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1538454.48642</v>
+        <v>1574332.08146</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1944443.03283</v>
+        <v>1959408.41718</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2222486.91656</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1982822.2869</v>
+        <v>1999540.18475</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2026549.47491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2056026.94156</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2828061.684</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1936.47335</v>
@@ -1583,7 +1569,7 @@
         <v>2515.60669</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3034.523479999999</v>
+        <v>3034.52348</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>2397.51212</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>867.98528</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1296.282</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>86051.49939</v>
@@ -1619,76 +1610,86 @@
         <v>95894.44750999998</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>85962.93170999998</v>
+        <v>85962.93171</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>108327.15067</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>123637.53045</v>
+        <v>123811.57495</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>147651.60908</v>
+        <v>148192.66322</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>175246.17149</v>
+        <v>184114.69024</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>232602.0912000001</v>
+        <v>232602.94793</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>260922.80197</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>288259.68258</v>
+        <v>288667.13247</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>300553.97206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>304204.4676499999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>313422.615</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>570906.6962700001</v>
+        <v>570906.69627</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>627455.0519399999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>758267.6022299998</v>
+        <v>758352.6198199999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>863712.6238099999</v>
+        <v>864150.17703</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>972621.6923599999</v>
+        <v>975223.1310200001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1167756.08586</v>
+        <v>1183212.94668</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1357234.86946</v>
+        <v>1384243.94575</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1710331.14835</v>
+        <v>1725295.67597</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1960535.52684</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1693334.60983</v>
+        <v>1709645.05779</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1725127.51757</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1750954.48863</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2513342.787</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>183149.24092</v>
@@ -1697,37 +1698,42 @@
         <v>191035.67049</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>232887.6297499999</v>
+        <v>232824.09199</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>297212.5498099999</v>
+        <v>297260.52927</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>365257.68058</v>
+        <v>363851.09778</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>352820.08714</v>
+        <v>347548.55651</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>361738.6314</v>
+        <v>364461.34551</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>459201.80317</v>
+        <v>461047.09074</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>520280.38242</v>
+        <v>520280.3824200001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>332745.43031</v>
+        <v>335106.7080399999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>445961.18697</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>563856.2101899999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>558170.589</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>102426.23202</v>
@@ -1739,34 +1745,39 @@
         <v>113055.40679</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>113627.36487</v>
+        <v>113683.53811</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>172585.6461</v>
+        <v>172964.77516</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>206215.51622</v>
+        <v>206809.1954</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>206875.86113</v>
+        <v>213430.60677</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>228266.07137</v>
+        <v>228685.25502</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>636641.3812899999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>652698.74682</v>
+        <v>660767.1281099999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>447611.6605</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>450756.10005</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>629151.503</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>13176.59938</v>
@@ -1787,10 +1798,10 @@
         <v>13723.53806</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>15519.00287</v>
+        <v>15995.20349</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>30683.21394</v>
+        <v>30707.6635</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>46690.82303</v>
@@ -1799,13 +1810,18 @@
         <v>20987.75386</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>15479.72281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>15630.1024</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>40932.943</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>12504.63377</v>
@@ -1823,28 +1839,33 @@
         <v>21226.40913</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>25853.95932</v>
+        <v>25853.95932000001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>31662.84319000001</v>
+        <v>31662.84319</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>22911.60332000001</v>
+        <v>23139.15279</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>51551.92527</v>
+        <v>51551.92526999999</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>41409.23757</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>33464.73647</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>33510.62757</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>21177.222</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>16054.65248</v>
@@ -1859,31 +1880,36 @@
         <v>26844.95308</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>27940.05206</v>
+        <v>27945.0287</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>42233.75767000001</v>
+        <v>42257.57775</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>53035.98413</v>
+        <v>54863.58245</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>56988.41594</v>
+        <v>57022.18056000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>71037.00039000002</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>91175.63215000002</v>
+        <v>91233.36697999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>97853.60834000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>97469.88988</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>83041.79399999999</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>63.85013</v>
@@ -1898,10 +1924,10 @@
         <v>840.8677700000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>788.82209</v>
+        <v>788.8220900000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>779.82083</v>
+        <v>779.8208299999999</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>200.21301</v>
@@ -1910,19 +1936,24 @@
         <v>359.26689</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>307.3408</v>
+        <v>307.3408000000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>379.59776</v>
+        <v>379.5977600000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1193.75388</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1167.96618</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>902.0839999999999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>12983.02311</v>
@@ -1931,7 +1962,7 @@
         <v>13009.21936</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>9961.206900000001</v>
+        <v>9961.206899999999</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>2485.18794</v>
@@ -1943,13 +1974,13 @@
         <v>11013.96562</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>17341.47733</v>
+        <v>17376.10537</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5862.10275</v>
+        <v>5879.497820000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>24315.33805999999</v>
+        <v>24315.33806</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>18235.81841</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>33960.62443</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>11575.989</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1616.27004</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>3076.893599999999</v>
+        <v>3076.8936</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>1274.24752</v>
@@ -1982,25 +2018,30 @@
         <v>1381.9473</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1701.92501</v>
+        <v>1806.1514</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>5516.995549999999</v>
+        <v>5516.99555</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>2535.05783</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>4974.431330000001</v>
+        <v>4978.577840000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>5962.046659999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>5965.044890000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>4661.139</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>19863.03944</v>
@@ -2012,16 +2053,16 @@
         <v>16763.81274</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>19645.37272</v>
+        <v>19701.54596</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>16091.51783</v>
+        <v>16452.09947</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>34553.96720000001</v>
+        <v>35028.95698</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>33510.14191</v>
+        <v>35054.99966</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>23068.37201</v>
@@ -2030,16 +2071,21 @@
         <v>340830.55935</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>324347.61937</v>
+        <v>332905.32212</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>79442.05203000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>82264.58921999999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>299445.636</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1383.67385</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>6196.94503</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>5431.121</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>265.25488</v>
@@ -2087,7 +2138,7 @@
         <v>441.71897</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>80.38460000000001</v>
+        <v>80.38459999999999</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>115.18605</v>
@@ -2099,7 +2150,7 @@
         <v>331.99875</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>27.79366</v>
+        <v>30.69314</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>68.98098</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>54.24481</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>64.111</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>24515.23494000001</v>
+        <v>24515.23494</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>31271.49693</v>
@@ -2129,34 +2185,39 @@
         <v>31030.54945</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>37125.59776999999</v>
+        <v>37125.59777</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>88973.14534</v>
+        <v>88986.71612000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>76331.39511999999</v>
+        <v>76426.26443999998</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>53870.38810999999</v>
+        <v>56434.72315000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>78970.55990999998</v>
+        <v>79086.58484000001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>99010.54815</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>150926.22771</v>
+        <v>150375.02491</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>174003.92604</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>174536.06564</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>161919.464</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>52157.95927000001</v>
@@ -2168,37 +2229,42 @@
         <v>84854.78621999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>45924.31712</v>
+        <v>45964.8678</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>100246.31467</v>
+        <v>100814.31681</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>78488.22209000001</v>
+        <v>78934.42133000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>70154.90788</v>
+        <v>71651.20103</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>76114.76216</v>
+        <v>76251.13007000001</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>465357.59815</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>409300.7288099999</v>
+        <v>413314.6879</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>224642.53212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>218071.91225</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>353049.184</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>709.2554200000001</v>
+        <v>709.2554199999998</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>2146.48963</v>
@@ -2216,7 +2282,7 @@
         <v>2699.36035</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2481.95593</v>
+        <v>2486.1833</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>2143.1596</v>
@@ -2225,16 +2291,21 @@
         <v>2795.47881</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4006.932729999999</v>
+        <v>4007.02104</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>6747.249080000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>6752.27729</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>5726.401</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>15908.92255</v>
@@ -2255,25 +2326,30 @@
         <v>19667.43797</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>11583.9607</v>
+        <v>11641.66626</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>8202.98444</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>36033.3493</v>
+        <v>36033.34929999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>39754.85831</v>
+        <v>39831.00778999999</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>54352.81875</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>23253.445</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>81.80006</v>
@@ -2294,10 +2370,10 @@
         <v>53.37722</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>69.30309</v>
+        <v>70.76509</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>469.40712</v>
+        <v>469.4071200000001</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>83.87792999999999</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>14613.07992</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>139.474</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>20103.03652</v>
+        <v>20103.03651999999</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>17689.6755</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>42471.97928999999</v>
+        <v>42471.97929</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>14687.25186</v>
+        <v>14727.80254</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>38469.26921</v>
+        <v>38803.35027</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>29055.39506</v>
+        <v>29451.3793</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>33825.14388</v>
+        <v>34793.53907</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>24817.12188</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>305092.73384</v>
+        <v>305092.7338400001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>318914.4085499999</v>
+        <v>322841.33256</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>77561.12885000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>70913.03627</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>278441.824</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>126.78562</v>
@@ -2366,7 +2452,7 @@
         <v>33.63198999999999</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>99.47780000000002</v>
+        <v>99.4778</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>313.00414</v>
@@ -2386,17 +2472,22 @@
       <c r="M41" s="48" t="n">
         <v>10247.17664</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1444.674</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>137.42546</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>80.61926000000001</v>
+        <v>80.61925999999998</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>81.34593</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>1e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>15090.73364</v>
@@ -2438,40 +2534,45 @@
         <v>21086.26707</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>20960.55303000001</v>
+        <v>20960.55303</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>19139.3718</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>52768.26869</v>
+        <v>53002.18977</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>26593.84842</v>
+        <v>26644.06342</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>21805.86144</v>
+        <v>22270.36447000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>34616.92545</v>
+        <v>34753.29336</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>120538.02016</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>46254.10907999999</v>
+        <v>46264.90637</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>61121.07887</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>61193.52337</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>44043.366</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>64962.88555999999</v>
+        <v>64962.88556</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>62681.94183</v>
@@ -2480,34 +2581,39 @@
         <v>75728.80554</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>97693.33639</v>
+        <v>97693.33638999998</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>92914.83875</v>
+        <v>93041.59289</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>115290.89737</v>
+        <v>123725.93241</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>175018.75171</v>
+        <v>177845.27517</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>218362.94818</v>
+        <v>219747.5481</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>439519.1480100001</v>
+        <v>439519.14801</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>323777.04619</v>
+        <v>323853.13325</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>333805.25453</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>331919.12768</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>293350.988</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>56856.24368</v>
@@ -2516,61 +2622,66 @@
         <v>55157.22148</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>70269.42418</v>
+        <v>70269.42417999999</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>92356.85812999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>87991.99272999998</v>
+        <v>88118.74687</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>111029.12918</v>
+        <v>119410.41127</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>168021.79267</v>
+        <v>170840.8262</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>209822.75008</v>
+        <v>211207.19133</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>231097.008</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>299824.41292</v>
+        <v>299900.49998</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>317757.67074</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>315855.1793500001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>275823.84</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>8106.641879999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>7524.720350000001</v>
+        <v>7524.72035</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>5459.38136</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>5336.478260000001</v>
+        <v>5336.47826</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>4922.846020000001</v>
+        <v>4922.84602</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4261.768190000001</v>
+        <v>4315.521140000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>6996.959040000001</v>
+        <v>7004.448969999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>8540.1981</v>
+        <v>8540.35677</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>208422.14001</v>
@@ -2579,91 +2690,106 @@
         <v>23952.63327</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>16047.58379</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>16063.94833</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>17527.148</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>168454.62811</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>165863.4839000001</v>
+        <v>165863.4839</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>185359.44478</v>
+        <v>185295.90702</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>267222.26117</v>
+        <v>267285.86319</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>344682.17326</v>
+        <v>342959.96324</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>365256.4839000001</v>
+        <v>351697.39817</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>323440.8329400001</v>
+        <v>328395.47608</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>392990.1641999999</v>
+        <v>393733.66759</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>252045.01755</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>252366.40213</v>
+        <v>258706.015</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>335125.06082</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>464621.2703100001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>540921.92</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>30491.74395</v>
+        <v>30491.74395000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>50941.18678</v>
+        <v>50941.18678000001</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>37529.96098</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>53876.93780000001</v>
+        <v>53876.9378</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>79423.66295999999</v>
+        <v>79486.39046</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>112565.68296</v>
+        <v>132295.77966</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>117488.25093</v>
+        <v>119694.95863</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>248166.86054</v>
+        <v>248975.98088</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>188200.95884</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>243402.4636199999</v>
+        <v>243490.51736</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>238271.1735499999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>238346.32477</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>312332.799</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1115.71678</v>
@@ -2678,31 +2804,36 @@
         <v>1964.68885</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>5088.203089999999</v>
+        <v>5088.203090000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2767.87768</v>
+        <v>3095.71824</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>8185.44853</v>
+        <v>8294.332420000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>4554.171780000001</v>
+        <v>4566.372240000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>2738.94042</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3804.64927</v>
+        <v>3804.649269999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2557.65999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2564.82144</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3410.028</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>29376.02717</v>
@@ -2711,43 +2842,48 @@
         <v>50171.34637</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>36348.17848999999</v>
+        <v>36348.17849000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>51912.24895</v>
+        <v>51912.24894999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>74335.45987000001</v>
+        <v>74398.18737</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>109797.80528</v>
+        <v>129200.06142</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>109302.8024</v>
+        <v>111400.62621</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>243612.68876</v>
+        <v>244409.60864</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>185462.01842</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>239597.81435</v>
+        <v>239685.86809</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>235713.51356</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>235781.50333</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>308922.771</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>35593.39138</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>53531.94931999999</v>
+        <v>53531.94932</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>265432.22782</v>
@@ -2756,37 +2892,42 @@
         <v>69304.32132999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>90249.99929000001</v>
+        <v>91059.80568</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>118182.49759</v>
+        <v>122292.91081</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>114814.28034</v>
+        <v>116153.22948</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>347733.72746</v>
+        <v>349386.5121699999</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>171200.44033</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>273499.48411</v>
+        <v>274849.15434</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>258529.08178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>261179.47634</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>234079.297</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>580.8366600000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>366.4819</v>
+        <v>366.4818999999999</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>151.02481</v>
@@ -2795,31 +2936,36 @@
         <v>261.24788</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1043.57855</v>
+        <v>1057.23434</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>942.9109100000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>929.71708</v>
+        <v>940.0420800000001</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>203.80104</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>979.84536</v>
+        <v>979.8453600000001</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>839.19176</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1980.15705</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1980.15755</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>214.038</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>4083.89188</v>
@@ -2834,37 +2980,42 @@
         <v>2442.2925</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2260.601349999999</v>
+        <v>2584.64256</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>6421.36261</v>
+        <v>6580.33241</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3089.10699</v>
+        <v>3609.74738</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>46739.34163</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5294.96978</v>
+        <v>5294.969779999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>10377.603</v>
+        <v>10377.65708</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>19634.74075</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>19668.74584</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>39963.148</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>30928.66284</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>49362.76343</v>
+        <v>49362.76342999999</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>263287.26141</v>
@@ -2873,109 +3024,124 @@
         <v>66600.78095</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>86945.81939</v>
+        <v>87417.92878</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>110818.22407</v>
+        <v>114769.66749</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>110795.45627</v>
+        <v>111603.44002</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>300790.58479</v>
+        <v>302443.3695</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>164925.62519</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>262282.68935</v>
+        <v>263632.3055</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>236914.18398</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>239530.57295</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>193902.111</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>163352.9806799999</v>
+        <v>163352.98068</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>163272.72136</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-42542.82205999999</v>
+        <v>-42606.35982</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>251794.87764</v>
+        <v>251858.47966</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>333855.8369299999</v>
+        <v>331386.54802</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>359639.66927</v>
+        <v>361700.26702</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>326114.80353</v>
+        <v>331937.20523</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>293423.2972800001</v>
+        <v>293323.1363</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>269045.53606</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>222269.38164</v>
+        <v>227347.37802</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>314867.15259</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>441788.11874</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>619175.422</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>37934.96541</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>41604.68541</v>
+        <v>41604.68541000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>50141.64536000001</v>
+        <v>50141.64535999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>66022.621</v>
+        <v>66024.31290999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>88509.83503999999</v>
+        <v>88560.64586</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>102033.83781</v>
+        <v>102136.55965</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>105205.40023</v>
+        <v>106892.6765</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>131798.03932</v>
+        <v>131980.99148</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>161849.02341</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>143507.14015</v>
+        <v>144273.51848</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>190057.88456</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>191620.64989</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>217186.666</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>125418.01527</v>
@@ -2984,34 +3150,37 @@
         <v>121668.03595</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-92684.46742</v>
+        <v>-92748.00518000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>185772.25664</v>
+        <v>185834.16675</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>245346.00189</v>
+        <v>242825.90216</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>257605.83146</v>
+        <v>259563.7073699999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>220909.4033</v>
+        <v>225044.52873</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>161625.25796</v>
+        <v>161342.14482</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>107196.51265</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>78762.24149</v>
+        <v>83073.85954000002</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>124809.26803</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>250167.46885</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>401988.756</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3582</v>
@@ -3038,34 +3210,37 @@
         <v>3876</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4609</v>
+        <v>4614</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>5388</v>
+        <v>5404</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5920</v>
+        <v>5951</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6273</v>
+        <v>6362</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>6649</v>
+        <v>6680</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>7062</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>6728</v>
+        <v>6917</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>6309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>6657</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>6532</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>